--- a/Bundle/Riscani/PT_Riscani.xlsx
+++ b/Bundle/Riscani/PT_Riscani.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Red-Nord\Birou\Bundle\Riscani\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frameworks\GitHub\Dispatcher_Bureau\Bundle\Riscani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181AF9B7-BC8E-4BD6-82C3-2017EA854AF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7455C9D-583A-4EF6-BC5E-83FD2D3B73FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" xr2:uid="{9A396AB9-6E7F-4978-AFCE-8C60F5766EE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A396AB9-6E7F-4978-AFCE-8C60F5766EE6}"/>
   </bookViews>
   <sheets>
     <sheet name="PT_Riscani" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="699">
   <si>
     <t>PT</t>
   </si>
@@ -1661,9 +1661,6 @@
     <t>s.Corlateni</t>
   </si>
   <si>
-    <t>Costeşti</t>
-  </si>
-  <si>
     <t>s.Costeşti</t>
   </si>
   <si>
@@ -1676,9 +1673,6 @@
     <t>s.Galaseni</t>
   </si>
   <si>
-    <t>Costesti</t>
-  </si>
-  <si>
     <t>s.Damaşcani</t>
   </si>
   <si>
@@ -1760,18 +1754,12 @@
     <t>s.Balanul Nou</t>
   </si>
   <si>
-    <t>Riscani</t>
-  </si>
-  <si>
     <t>s.Pîrjota</t>
   </si>
   <si>
     <t>s.Hiliuţi</t>
   </si>
   <si>
-    <t>sat.Struzeni</t>
-  </si>
-  <si>
     <t>s.Struzeni</t>
   </si>
   <si>
@@ -1815,12 +1803,6 @@
   </si>
   <si>
     <t>s.Aluniş</t>
-  </si>
-  <si>
-    <t>Romazani</t>
-  </si>
-  <si>
-    <t>S.Bulgac</t>
   </si>
   <si>
     <t>s.Bulgac</t>
@@ -2605,8 +2587,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E661"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
+      <selection activeCell="B434" sqref="B434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2643,7 +2625,7 @@
         <v>542</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D2" s="15">
         <v>0</v>
@@ -2660,7 +2642,7 @@
         <v>542</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D3" s="15">
         <v>0</v>
@@ -2677,7 +2659,7 @@
         <v>542</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D4" s="15">
         <v>0</v>
@@ -2694,7 +2676,7 @@
         <v>542</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D5" s="15">
         <v>0</v>
@@ -2711,7 +2693,7 @@
         <v>542</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D6" s="15">
         <v>0</v>
@@ -2728,7 +2710,7 @@
         <v>542</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D7" s="15">
         <v>0</v>
@@ -2745,7 +2727,7 @@
         <v>542</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D8" s="15">
         <v>0</v>
@@ -2762,7 +2744,7 @@
         <v>542</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D9" s="15">
         <v>0</v>
@@ -2779,7 +2761,7 @@
         <v>542</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D10" s="15">
         <v>0</v>
@@ -2796,7 +2778,7 @@
         <v>542</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D11" s="15">
         <v>0</v>
@@ -2810,10 +2792,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D12" s="15">
         <v>0</v>
@@ -2827,10 +2809,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D13" s="16">
         <v>320</v>
@@ -2844,10 +2826,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D14" s="16">
         <v>64</v>
@@ -2861,10 +2843,10 @@
         <v>18</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D15" s="16">
         <v>256</v>
@@ -2878,10 +2860,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D16" s="16">
         <v>11</v>
@@ -2895,10 +2877,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D17" s="16">
         <v>148</v>
@@ -2912,10 +2894,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D18" s="16">
         <v>173</v>
@@ -2929,10 +2911,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D19" s="16">
         <v>69</v>
@@ -2946,10 +2928,10 @@
         <v>23</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D20" s="16">
         <v>65</v>
@@ -2963,10 +2945,10 @@
         <v>24</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D21" s="15">
         <v>0</v>
@@ -2980,10 +2962,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D22" s="16">
         <v>14</v>
@@ -2997,10 +2979,10 @@
         <v>26</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D23" s="16">
         <v>40</v>
@@ -3014,10 +2996,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D24" s="15">
         <v>0</v>
@@ -3031,10 +3013,10 @@
         <v>28</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D25" s="15">
         <v>0</v>
@@ -3048,10 +3030,10 @@
         <v>29</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D26" s="15">
         <v>0</v>
@@ -3065,10 +3047,10 @@
         <v>30</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D27" s="16">
         <v>102</v>
@@ -3082,10 +3064,10 @@
         <v>31</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D28" s="15">
         <v>0</v>
@@ -3099,10 +3081,10 @@
         <v>32</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D29" s="15">
         <v>0</v>
@@ -3116,10 +3098,10 @@
         <v>33</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D30" s="15">
         <v>0</v>
@@ -3133,10 +3115,10 @@
         <v>34</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D31" s="15">
         <v>0</v>
@@ -3150,10 +3132,10 @@
         <v>35</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D32" s="16">
         <v>7</v>
@@ -3167,10 +3149,10 @@
         <v>36</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D33" s="16">
         <v>65</v>
@@ -3184,10 +3166,10 @@
         <v>37</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D34" s="16">
         <v>150</v>
@@ -3201,10 +3183,10 @@
         <v>38</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D35" s="16">
         <v>39</v>
@@ -3218,10 +3200,10 @@
         <v>39</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D36" s="16">
         <v>36</v>
@@ -3235,10 +3217,10 @@
         <v>40</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D37" s="16">
         <v>61</v>
@@ -3252,10 +3234,10 @@
         <v>41</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D38" s="16">
         <v>45</v>
@@ -3269,10 +3251,10 @@
         <v>42</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D39" s="15">
         <v>0</v>
@@ -3286,10 +3268,10 @@
         <v>43</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D40" s="15">
         <v>0</v>
@@ -3303,10 +3285,10 @@
         <v>44</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D41" s="15">
         <v>0</v>
@@ -3320,10 +3302,10 @@
         <v>45</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D42" s="15">
         <v>0</v>
@@ -3337,10 +3319,10 @@
         <v>46</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D43" s="16">
         <v>89</v>
@@ -3354,10 +3336,10 @@
         <v>47</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D44" s="16">
         <v>54</v>
@@ -3371,10 +3353,10 @@
         <v>48</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D45" s="15">
         <v>0</v>
@@ -3388,10 +3370,10 @@
         <v>49</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D46" s="16">
         <v>22</v>
@@ -3405,10 +3387,10 @@
         <v>50</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D47" s="15">
         <v>0</v>
@@ -3422,10 +3404,10 @@
         <v>51</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D48" s="16">
         <v>109</v>
@@ -3439,10 +3421,10 @@
         <v>52</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D49" s="16">
         <v>99</v>
@@ -3456,10 +3438,10 @@
         <v>53</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D50" s="16">
         <v>116</v>
@@ -3473,10 +3455,10 @@
         <v>54</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D51" s="15">
         <v>0</v>
@@ -3490,10 +3472,10 @@
         <v>55</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D52" s="16">
         <v>87</v>
@@ -3507,10 +3489,10 @@
         <v>56</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D53" s="15">
         <v>0</v>
@@ -3524,10 +3506,10 @@
         <v>57</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D54" s="15">
         <v>0</v>
@@ -3541,10 +3523,10 @@
         <v>58</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D55" s="15">
         <v>0</v>
@@ -3558,10 +3540,10 @@
         <v>59</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D56" s="15">
         <v>0</v>
@@ -3575,10 +3557,10 @@
         <v>60</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D57" s="15">
         <v>0</v>
@@ -3592,10 +3574,10 @@
         <v>61</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D58" s="15">
         <v>0</v>
@@ -3609,10 +3591,10 @@
         <v>62</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D59" s="15">
         <v>0</v>
@@ -3626,10 +3608,10 @@
         <v>63</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D60" s="16">
         <v>170</v>
@@ -3643,10 +3625,10 @@
         <v>64</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D61" s="16">
         <v>107</v>
@@ -3660,10 +3642,10 @@
         <v>65</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D62" s="16">
         <v>96</v>
@@ -3677,10 +3659,10 @@
         <v>66</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D63" s="15">
         <v>0</v>
@@ -3694,10 +3676,10 @@
         <v>67</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D64" s="15">
         <v>0</v>
@@ -3711,10 +3693,10 @@
         <v>68</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D65" s="15">
         <v>0</v>
@@ -3728,10 +3710,10 @@
         <v>69</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D66" s="15">
         <v>0</v>
@@ -3745,10 +3727,10 @@
         <v>70</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D67" s="16">
         <v>117</v>
@@ -3762,10 +3744,10 @@
         <v>71</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D68" s="16">
         <v>141</v>
@@ -3779,10 +3761,10 @@
         <v>72</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D69" s="16">
         <v>63</v>
@@ -3796,10 +3778,10 @@
         <v>73</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D70" s="16">
         <v>59</v>
@@ -3813,10 +3795,10 @@
         <v>74</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D71" s="16">
         <v>104</v>
@@ -3830,10 +3812,10 @@
         <v>75</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D72" s="15">
         <v>0</v>
@@ -3847,10 +3829,10 @@
         <v>76</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D73" s="16">
         <v>39</v>
@@ -3864,10 +3846,10 @@
         <v>77</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D74" s="16">
         <v>163</v>
@@ -3881,10 +3863,10 @@
         <v>78</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D75" s="16">
         <v>31</v>
@@ -3898,10 +3880,10 @@
         <v>79</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D76" s="16">
         <v>130</v>
@@ -3915,10 +3897,10 @@
         <v>80</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D77" s="16">
         <v>133</v>
@@ -3932,10 +3914,10 @@
         <v>81</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D78" s="15">
         <v>0</v>
@@ -3949,10 +3931,10 @@
         <v>82</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D79" s="15">
         <v>0</v>
@@ -3966,10 +3948,10 @@
         <v>83</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D80" s="15">
         <v>0</v>
@@ -3983,10 +3965,10 @@
         <v>84</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D81" s="15">
         <v>0</v>
@@ -4000,10 +3982,10 @@
         <v>85</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D82" s="16">
         <v>43</v>
@@ -4017,10 +3999,10 @@
         <v>86</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D83" s="16">
         <v>38</v>
@@ -4034,10 +4016,10 @@
         <v>87</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D84" s="16">
         <v>109</v>
@@ -4051,10 +4033,10 @@
         <v>88</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D85" s="16">
         <v>30</v>
@@ -4068,10 +4050,10 @@
         <v>89</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D86" s="16">
         <v>57</v>
@@ -4085,10 +4067,10 @@
         <v>90</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D87" s="16">
         <v>131</v>
@@ -4102,10 +4084,10 @@
         <v>91</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D88" s="16">
         <v>116</v>
@@ -4119,10 +4101,10 @@
         <v>92</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D89" s="15">
         <v>63</v>
@@ -4136,10 +4118,10 @@
         <v>93</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D90" s="15">
         <v>0</v>
@@ -4153,10 +4135,10 @@
         <v>94</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D91" s="16">
         <v>65</v>
@@ -4170,10 +4152,10 @@
         <v>95</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D92" s="16">
         <v>141</v>
@@ -4187,10 +4169,10 @@
         <v>96</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D93" s="16">
         <v>98</v>
@@ -4204,10 +4186,10 @@
         <v>97</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D94" s="16">
         <v>34</v>
@@ -4221,10 +4203,10 @@
         <v>98</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D95" s="15">
         <v>0</v>
@@ -4238,10 +4220,10 @@
         <v>99</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D96" s="16">
         <v>18</v>
@@ -4255,10 +4237,10 @@
         <v>100</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D97" s="15">
         <v>0</v>
@@ -4272,7 +4254,7 @@
         <v>101</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="15">
@@ -4287,10 +4269,10 @@
         <v>102</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D99" s="15">
         <v>0</v>
@@ -4304,10 +4286,10 @@
         <v>103</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D100" s="15">
         <v>0</v>
@@ -4321,10 +4303,10 @@
         <v>104</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D101" s="15">
         <v>0</v>
@@ -4338,10 +4320,10 @@
         <v>105</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D102" s="16">
         <v>81</v>
@@ -4355,10 +4337,10 @@
         <v>106</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D103" s="15">
         <v>3</v>
@@ -4372,10 +4354,10 @@
         <v>107</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D104" s="15">
         <v>0</v>
@@ -4389,10 +4371,10 @@
         <v>108</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D105" s="15">
         <v>0</v>
@@ -4406,10 +4388,10 @@
         <v>109</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D106" s="15">
         <v>0</v>
@@ -4423,10 +4405,10 @@
         <v>110</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D107" s="15">
         <v>0</v>
@@ -4453,10 +4435,10 @@
         <v>112</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D109" s="15">
         <v>0</v>
@@ -4470,10 +4452,10 @@
         <v>113</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D110" s="15">
         <v>0</v>
@@ -4487,10 +4469,10 @@
         <v>114</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D111" s="16">
         <v>53</v>
@@ -4504,10 +4486,10 @@
         <v>115</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D112" s="16">
         <v>97</v>
@@ -4521,10 +4503,10 @@
         <v>116</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D113" s="16">
         <v>48</v>
@@ -4538,10 +4520,10 @@
         <v>117</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D114" s="16">
         <v>48</v>
@@ -4555,10 +4537,10 @@
         <v>118</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D115" s="16">
         <v>137</v>
@@ -4572,10 +4554,10 @@
         <v>119</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D116" s="16">
         <v>96</v>
@@ -4589,10 +4571,10 @@
         <v>120</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D117" s="16">
         <v>96</v>
@@ -4606,10 +4588,10 @@
         <v>121</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D118" s="16">
         <v>147</v>
@@ -4623,10 +4605,10 @@
         <v>122</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D119" s="15">
         <v>0</v>
@@ -4640,10 +4622,10 @@
         <v>123</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D120" s="15">
         <v>0</v>
@@ -4657,10 +4639,10 @@
         <v>124</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D121" s="15">
         <v>0</v>
@@ -4674,10 +4656,10 @@
         <v>125</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D122" s="16">
         <v>121</v>
@@ -4691,10 +4673,10 @@
         <v>126</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D123" s="16">
         <v>147</v>
@@ -4708,10 +4690,10 @@
         <v>127</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D124" s="16">
         <v>32</v>
@@ -4725,10 +4707,10 @@
         <v>128</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D125" s="16">
         <v>117</v>
@@ -4742,10 +4724,10 @@
         <v>129</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D126" s="16">
         <v>140</v>
@@ -4759,10 +4741,10 @@
         <v>130</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D127" s="15">
         <v>0</v>
@@ -4776,10 +4758,10 @@
         <v>131</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D128" s="15">
         <v>0</v>
@@ -4793,10 +4775,10 @@
         <v>132</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D129" s="15">
         <v>0</v>
@@ -4810,10 +4792,10 @@
         <v>133</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D130" s="15">
         <v>0</v>
@@ -4827,10 +4809,10 @@
         <v>134</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D131" s="16">
         <v>132</v>
@@ -4844,10 +4826,10 @@
         <v>135</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D132" s="16">
         <v>52</v>
@@ -4861,10 +4843,10 @@
         <v>136</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D133" s="16">
         <v>177</v>
@@ -4878,10 +4860,10 @@
         <v>137</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D134" s="16">
         <v>185</v>
@@ -4895,10 +4877,10 @@
         <v>138</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D135" s="15">
         <v>0</v>
@@ -4912,10 +4894,10 @@
         <v>139</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D136" s="16">
         <v>88</v>
@@ -4929,10 +4911,10 @@
         <v>140</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D137" s="15">
         <v>0</v>
@@ -4946,10 +4928,10 @@
         <v>141</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D138" s="15">
         <v>0</v>
@@ -4963,10 +4945,10 @@
         <v>142</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D139" s="15">
         <v>0</v>
@@ -4980,10 +4962,10 @@
         <v>143</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D140" s="16">
         <v>124</v>
@@ -4997,10 +4979,10 @@
         <v>144</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D141" s="16">
         <v>53</v>
@@ -5014,10 +4996,10 @@
         <v>145</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D142" s="16">
         <v>0</v>
@@ -5031,10 +5013,10 @@
         <v>146</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D143" s="16">
         <v>0</v>
@@ -5048,10 +5030,10 @@
         <v>147</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D144" s="16">
         <v>252</v>
@@ -5065,10 +5047,10 @@
         <v>148</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D145" s="16">
         <v>198</v>
@@ -5082,10 +5064,10 @@
         <v>149</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D146" s="15">
         <v>0</v>
@@ -5099,10 +5081,10 @@
         <v>150</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D147" s="16">
         <v>139</v>
@@ -5116,10 +5098,10 @@
         <v>151</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D148" s="16">
         <v>120</v>
@@ -5133,10 +5115,10 @@
         <v>152</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D149" s="16">
         <v>104</v>
@@ -5150,10 +5132,10 @@
         <v>153</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D150" s="15">
         <v>0</v>
@@ -5167,10 +5149,10 @@
         <v>154</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D151" s="15">
         <v>2</v>
@@ -5184,10 +5166,10 @@
         <v>155</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D152" s="15">
         <v>0</v>
@@ -5201,10 +5183,10 @@
         <v>156</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D153" s="16">
         <v>53</v>
@@ -5218,10 +5200,10 @@
         <v>157</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D154" s="16">
         <v>232</v>
@@ -5235,10 +5217,10 @@
         <v>158</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D155" s="16">
         <v>15</v>
@@ -5252,10 +5234,10 @@
         <v>159</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D156" s="16">
         <v>225</v>
@@ -5269,10 +5251,10 @@
         <v>160</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D157" s="16">
         <v>101</v>
@@ -5286,10 +5268,10 @@
         <v>161</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D158" s="16">
         <v>271</v>
@@ -5303,10 +5285,10 @@
         <v>162</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D159" s="16">
         <v>355</v>
@@ -5320,10 +5302,10 @@
         <v>163</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D160" s="16">
         <v>216</v>
@@ -5337,10 +5319,10 @@
         <v>164</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D161" s="15">
         <v>0</v>
@@ -5354,10 +5336,10 @@
         <v>165</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D162" s="16">
         <v>227</v>
@@ -5371,10 +5353,10 @@
         <v>166</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D163" s="16">
         <v>170</v>
@@ -5388,10 +5370,10 @@
         <v>167</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D164" s="15">
         <v>0</v>
@@ -5405,10 +5387,10 @@
         <v>168</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D165" s="16">
         <v>135</v>
@@ -5422,10 +5404,10 @@
         <v>169</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D166" s="15">
         <v>0</v>
@@ -5439,10 +5421,10 @@
         <v>170</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D167" s="15">
         <v>0</v>
@@ -5456,10 +5438,10 @@
         <v>171</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D168" s="15">
         <v>0</v>
@@ -5473,10 +5455,10 @@
         <v>172</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D169" s="15">
         <v>0</v>
@@ -5490,10 +5472,10 @@
         <v>173</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D170" s="15">
         <v>0</v>
@@ -5507,10 +5489,10 @@
         <v>174</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D171" s="15">
         <v>0</v>
@@ -5524,10 +5506,10 @@
         <v>175</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D172" s="15">
         <v>0</v>
@@ -5541,10 +5523,10 @@
         <v>176</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D173" s="15">
         <v>0</v>
@@ -5558,10 +5540,10 @@
         <v>177</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D174" s="15">
         <v>0</v>
@@ -5575,10 +5557,10 @@
         <v>178</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D175" s="16">
         <v>148</v>
@@ -5592,10 +5574,10 @@
         <v>179</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D176" s="16">
         <v>89</v>
@@ -5609,10 +5591,10 @@
         <v>180</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D177" s="16">
         <v>92</v>
@@ -5626,10 +5608,10 @@
         <v>181</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D178" s="16">
         <v>39</v>
@@ -5643,10 +5625,10 @@
         <v>182</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D179" s="16">
         <v>69</v>
@@ -5660,10 +5642,10 @@
         <v>183</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D180" s="15">
         <v>0</v>
@@ -5677,10 +5659,10 @@
         <v>184</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D181" s="15">
         <v>0</v>
@@ -5694,10 +5676,10 @@
         <v>185</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D182" s="15">
         <v>0</v>
@@ -5711,10 +5693,10 @@
         <v>186</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D183" s="15">
         <v>0</v>
@@ -5728,10 +5710,10 @@
         <v>187</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D184" s="16">
         <v>83</v>
@@ -5745,10 +5727,10 @@
         <v>188</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D185" s="15">
         <v>0</v>
@@ -5762,10 +5744,10 @@
         <v>189</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D186" s="15">
         <v>0</v>
@@ -5779,10 +5761,10 @@
         <v>190</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D187" s="15">
         <v>0</v>
@@ -5796,10 +5778,10 @@
         <v>191</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D188" s="15">
         <v>0</v>
@@ -5813,10 +5795,10 @@
         <v>192</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D189" s="15">
         <v>1</v>
@@ -5830,10 +5812,10 @@
         <v>193</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D190" s="15">
         <v>0</v>
@@ -5847,10 +5829,10 @@
         <v>194</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D191" s="16">
         <v>30</v>
@@ -5864,10 +5846,10 @@
         <v>195</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D192" s="15">
         <v>0</v>
@@ -5881,10 +5863,10 @@
         <v>196</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D193" s="16">
         <v>120</v>
@@ -5898,10 +5880,10 @@
         <v>197</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D194" s="16">
         <v>70</v>
@@ -5915,10 +5897,10 @@
         <v>198</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D195" s="15">
         <v>0</v>
@@ -5932,10 +5914,10 @@
         <v>199</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D196" s="16">
         <v>67</v>
@@ -5949,10 +5931,10 @@
         <v>200</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D197" s="16">
         <v>63</v>
@@ -5966,10 +5948,10 @@
         <v>201</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D198" s="16">
         <v>197</v>
@@ -5983,10 +5965,10 @@
         <v>202</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D199" s="15">
         <v>0</v>
@@ -6000,10 +5982,10 @@
         <v>203</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D200" s="16">
         <v>258</v>
@@ -6017,10 +5999,10 @@
         <v>204</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D201" s="16">
         <v>65</v>
@@ -6034,10 +6016,10 @@
         <v>205</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D202" s="15">
         <v>0</v>
@@ -6051,10 +6033,10 @@
         <v>206</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D203" s="16">
         <v>51</v>
@@ -6068,10 +6050,10 @@
         <v>207</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D204" s="16">
         <v>100</v>
@@ -6085,10 +6067,10 @@
         <v>208</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D205" s="16">
         <v>164</v>
@@ -6102,10 +6084,10 @@
         <v>209</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D206" s="16">
         <v>191</v>
@@ -6119,10 +6101,10 @@
         <v>210</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D207" s="16">
         <v>62</v>
@@ -6136,10 +6118,10 @@
         <v>211</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D208" s="16">
         <v>123</v>
@@ -6153,10 +6135,10 @@
         <v>212</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D209" s="16">
         <v>160</v>
@@ -6170,10 +6152,10 @@
         <v>213</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D210" s="16">
         <v>70</v>
@@ -6187,10 +6169,10 @@
         <v>214</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D211" s="16">
         <v>221</v>
@@ -6204,10 +6186,10 @@
         <v>215</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D212" s="16">
         <v>168</v>
@@ -6221,10 +6203,10 @@
         <v>216</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D213" s="16">
         <v>114</v>
@@ -6238,10 +6220,10 @@
         <v>217</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D214" s="16">
         <v>82</v>
@@ -6255,10 +6237,10 @@
         <v>218</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D215" s="16">
         <v>73</v>
@@ -6272,10 +6254,10 @@
         <v>219</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D216" s="16">
         <v>117</v>
@@ -6289,10 +6271,10 @@
         <v>220</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D217" s="16">
         <v>65</v>
@@ -6306,10 +6288,10 @@
         <v>221</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D218" s="16">
         <v>111</v>
@@ -6323,10 +6305,10 @@
         <v>222</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D219" s="16">
         <v>287</v>
@@ -6340,7 +6322,7 @@
         <v>223</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C220" s="14"/>
       <c r="D220" s="16">
@@ -6355,10 +6337,10 @@
         <v>224</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D221" s="15">
         <v>0</v>
@@ -6372,10 +6354,10 @@
         <v>225</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D222" s="15">
         <v>0</v>
@@ -6389,10 +6371,10 @@
         <v>226</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D223" s="15">
         <v>0</v>
@@ -6406,10 +6388,10 @@
         <v>227</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D224" s="15">
         <v>0</v>
@@ -6423,10 +6405,10 @@
         <v>228</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D225" s="16">
         <v>74</v>
@@ -6440,10 +6422,10 @@
         <v>229</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D226" s="16">
         <v>200</v>
@@ -6457,10 +6439,10 @@
         <v>230</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D227" s="16">
         <v>60</v>
@@ -6474,10 +6456,10 @@
         <v>231</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D228" s="15">
         <v>0</v>
@@ -6491,10 +6473,10 @@
         <v>232</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D229" s="15">
         <v>0</v>
@@ -6508,10 +6490,10 @@
         <v>233</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D230" s="15">
         <v>0</v>
@@ -6525,10 +6507,10 @@
         <v>234</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D231" s="15">
         <v>0</v>
@@ -6542,10 +6524,10 @@
         <v>235</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D232" s="15">
         <v>0</v>
@@ -6559,10 +6541,10 @@
         <v>236</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D233" s="15">
         <v>0</v>
@@ -6576,10 +6558,10 @@
         <v>237</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D234" s="15">
         <v>0</v>
@@ -6593,10 +6575,10 @@
         <v>238</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D235" s="15">
         <v>13</v>
@@ -6610,10 +6592,10 @@
         <v>239</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D236" s="15">
         <v>0</v>
@@ -6627,10 +6609,10 @@
         <v>240</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D237" s="15">
         <v>0</v>
@@ -6644,10 +6626,10 @@
         <v>241</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D238" s="15">
         <v>0</v>
@@ -6661,10 +6643,10 @@
         <v>242</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D239" s="15">
         <v>0</v>
@@ -6678,10 +6660,10 @@
         <v>243</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D240" s="15">
         <v>0</v>
@@ -6695,10 +6677,10 @@
         <v>244</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D241" s="15">
         <v>0</v>
@@ -6712,10 +6694,10 @@
         <v>245</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D242" s="15">
         <v>0</v>
@@ -6729,10 +6711,10 @@
         <v>246</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D243" s="15">
         <v>0</v>
@@ -6746,10 +6728,10 @@
         <v>247</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D244" s="16">
         <v>71</v>
@@ -6763,10 +6745,10 @@
         <v>248</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D245" s="16">
         <v>56</v>
@@ -6780,10 +6762,10 @@
         <v>249</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D246" s="16">
         <v>74</v>
@@ -6797,10 +6779,10 @@
         <v>250</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D247" s="15">
         <v>0</v>
@@ -6814,10 +6796,10 @@
         <v>251</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D248" s="15">
         <v>0</v>
@@ -6831,10 +6813,10 @@
         <v>252</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C249" s="14" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D249" s="15">
         <v>0</v>
@@ -6848,10 +6830,10 @@
         <v>253</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D250" s="15">
         <v>0</v>
@@ -6865,10 +6847,10 @@
         <v>254</v>
       </c>
       <c r="B251" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D251" s="15">
         <v>1</v>
@@ -6882,10 +6864,10 @@
         <v>255</v>
       </c>
       <c r="B252" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D252" s="15">
         <v>135</v>
@@ -6899,10 +6881,10 @@
         <v>256</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D253" s="15">
         <v>0</v>
@@ -6916,10 +6898,10 @@
         <v>257</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D254" s="15">
         <v>0</v>
@@ -6933,10 +6915,10 @@
         <v>258</v>
       </c>
       <c r="B255" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D255" s="15">
         <v>0</v>
@@ -6950,10 +6932,10 @@
         <v>259</v>
       </c>
       <c r="B256" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D256" s="15">
         <v>0</v>
@@ -6967,10 +6949,10 @@
         <v>260</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D257" s="15">
         <v>0</v>
@@ -6984,10 +6966,10 @@
         <v>261</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D258" s="15">
         <v>0</v>
@@ -7001,10 +6983,10 @@
         <v>262</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D259" s="15">
         <v>0</v>
@@ -7018,10 +7000,10 @@
         <v>263</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D260" s="15">
         <v>0</v>
@@ -7035,10 +7017,10 @@
         <v>264</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D261" s="16">
         <v>86</v>
@@ -7052,10 +7034,10 @@
         <v>265</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D262" s="16">
         <v>62</v>
@@ -7069,10 +7051,10 @@
         <v>266</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D263" s="16">
         <v>72</v>
@@ -7086,10 +7068,10 @@
         <v>267</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D264" s="16">
         <v>37</v>
@@ -7103,10 +7085,10 @@
         <v>268</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D265" s="15">
         <v>0</v>
@@ -7120,10 +7102,10 @@
         <v>269</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D266" s="16">
         <v>179</v>
@@ -7137,10 +7119,10 @@
         <v>270</v>
       </c>
       <c r="B267" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D267" s="15">
         <v>0</v>
@@ -7154,10 +7136,10 @@
         <v>271</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D268" s="15">
         <v>75</v>
@@ -7171,10 +7153,10 @@
         <v>272</v>
       </c>
       <c r="B269" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D269" s="15">
         <v>148</v>
@@ -7188,10 +7170,10 @@
         <v>273</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D270" s="15">
         <v>0</v>
@@ -7205,10 +7187,10 @@
         <v>274</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C271" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D271" s="15">
         <v>0</v>
@@ -7222,10 +7204,10 @@
         <v>275</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C272" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D272" s="16">
         <v>53</v>
@@ -7239,10 +7221,10 @@
         <v>276</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C273" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D273" s="16">
         <v>132</v>
@@ -7256,10 +7238,10 @@
         <v>277</v>
       </c>
       <c r="B274" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D274" s="15">
         <v>0</v>
@@ -7273,10 +7255,10 @@
         <v>278</v>
       </c>
       <c r="B275" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C275" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D275" s="16">
         <v>43</v>
@@ -7290,10 +7272,10 @@
         <v>279</v>
       </c>
       <c r="B276" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C276" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D276" s="16">
         <v>53</v>
@@ -7307,10 +7289,10 @@
         <v>280</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D277" s="16">
         <v>82</v>
@@ -7324,10 +7306,10 @@
         <v>281</v>
       </c>
       <c r="B278" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D278" s="16">
         <v>118</v>
@@ -7341,10 +7323,10 @@
         <v>282</v>
       </c>
       <c r="B279" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C279" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D279" s="15">
         <v>0</v>
@@ -7358,10 +7340,10 @@
         <v>283</v>
       </c>
       <c r="B280" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D280" s="16">
         <v>94</v>
@@ -7375,10 +7357,10 @@
         <v>284</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D281" s="16">
         <v>127</v>
@@ -7392,10 +7374,10 @@
         <v>285</v>
       </c>
       <c r="B282" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D282" s="15">
         <v>0</v>
@@ -7409,10 +7391,10 @@
         <v>286</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C283" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D283" s="16">
         <v>139</v>
@@ -7426,10 +7408,10 @@
         <v>287</v>
       </c>
       <c r="B284" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C284" s="14" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D284" s="15">
         <v>0</v>
@@ -7443,10 +7425,10 @@
         <v>288</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C285" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D285" s="15">
         <v>0</v>
@@ -7460,10 +7442,10 @@
         <v>289</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C286" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D286" s="15">
         <v>0</v>
@@ -7477,10 +7459,10 @@
         <v>290</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C287" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D287" s="16">
         <v>92</v>
@@ -7494,10 +7476,10 @@
         <v>291</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C288" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D288" s="16">
         <v>43</v>
@@ -7511,10 +7493,10 @@
         <v>292</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C289" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D289" s="16">
         <v>32</v>
@@ -7528,10 +7510,10 @@
         <v>293</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D290" s="16">
         <v>131</v>
@@ -7545,10 +7527,10 @@
         <v>294</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C291" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D291" s="16">
         <v>161</v>
@@ -7562,10 +7544,10 @@
         <v>295</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C292" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D292" s="16">
         <v>57</v>
@@ -7579,10 +7561,10 @@
         <v>296</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C293" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D293" s="16">
         <v>64</v>
@@ -7596,10 +7578,10 @@
         <v>297</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C294" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D294" s="15">
         <v>8</v>
@@ -7613,10 +7595,10 @@
         <v>298</v>
       </c>
       <c r="B295" s="13" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C295" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D295" s="16">
         <v>79</v>
@@ -7630,10 +7612,10 @@
         <v>299</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C296" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D296" s="15">
         <v>0</v>
@@ -7647,10 +7629,10 @@
         <v>300</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D297" s="16">
         <v>62</v>
@@ -7664,10 +7646,10 @@
         <v>301</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D298" s="16">
         <v>55</v>
@@ -7681,10 +7663,10 @@
         <v>302</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C299" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D299" s="15">
         <v>0</v>
@@ -7698,10 +7680,10 @@
         <v>303</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D300" s="16">
         <v>72</v>
@@ -7715,10 +7697,10 @@
         <v>304</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D301" s="16">
         <v>114</v>
@@ -7732,10 +7714,10 @@
         <v>305</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D302" s="15">
         <v>0</v>
@@ -7749,10 +7731,10 @@
         <v>306</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D303" s="15">
         <v>0</v>
@@ -7766,10 +7748,10 @@
         <v>307</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D304" s="15">
         <v>0</v>
@@ -7783,10 +7765,10 @@
         <v>308</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D305" s="15">
         <v>0</v>
@@ -7800,10 +7782,10 @@
         <v>309</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D306" s="15">
         <v>0</v>
@@ -7817,10 +7799,10 @@
         <v>310</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D307" s="15">
         <v>0</v>
@@ -7834,10 +7816,10 @@
         <v>311</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D308" s="16">
         <v>1</v>
@@ -7851,10 +7833,10 @@
         <v>312</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D309" s="15">
         <v>0</v>
@@ -7868,10 +7850,10 @@
         <v>313</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D310" s="16">
         <v>90</v>
@@ -7885,10 +7867,10 @@
         <v>314</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D311" s="16">
         <v>0</v>
@@ -7902,10 +7884,10 @@
         <v>315</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D312" s="16">
         <v>35</v>
@@ -7919,10 +7901,10 @@
         <v>316</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D313" s="15">
         <v>3</v>
@@ -7936,10 +7918,10 @@
         <v>317</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D314" s="16">
         <v>58</v>
@@ -7953,10 +7935,10 @@
         <v>318</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D315" s="15">
         <v>0</v>
@@ -7970,10 +7952,10 @@
         <v>319</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D316" s="16">
         <v>44</v>
@@ -7987,10 +7969,10 @@
         <v>320</v>
       </c>
       <c r="B317" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D317" s="16">
         <v>163</v>
@@ -8004,10 +7986,10 @@
         <v>321</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D318" s="16">
         <v>116</v>
@@ -8021,10 +8003,10 @@
         <v>322</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D319" s="16">
         <v>111</v>
@@ -8038,10 +8020,10 @@
         <v>323</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D320" s="15">
         <v>0</v>
@@ -8055,10 +8037,10 @@
         <v>324</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D321" s="16">
         <v>99</v>
@@ -8072,10 +8054,10 @@
         <v>325</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D322" s="15">
         <v>0</v>
@@ -8089,10 +8071,10 @@
         <v>326</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D323" s="15">
         <v>0</v>
@@ -8106,10 +8088,10 @@
         <v>327</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D324" s="15">
         <v>0</v>
@@ -8124,7 +8106,7 @@
       </c>
       <c r="B325" s="13"/>
       <c r="C325" s="14" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D325" s="15">
         <v>0</v>
@@ -8138,10 +8120,10 @@
         <v>329</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C326" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D326" s="15">
         <v>0</v>
@@ -8155,10 +8137,10 @@
         <v>330</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D327" s="15">
         <v>0</v>
@@ -8172,10 +8154,10 @@
         <v>331</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D328" s="15">
         <v>0</v>
@@ -8189,10 +8171,10 @@
         <v>332</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C329" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D329" s="16">
         <v>71</v>
@@ -8206,10 +8188,10 @@
         <v>333</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C330" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D330" s="16">
         <v>74</v>
@@ -8223,10 +8205,10 @@
         <v>334</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D331" s="16">
         <v>322</v>
@@ -8240,10 +8222,10 @@
         <v>335</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D332" s="15">
         <v>21</v>
@@ -8257,10 +8239,10 @@
         <v>336</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D333" s="16">
         <v>0</v>
@@ -8274,10 +8256,10 @@
         <v>337</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D334" s="15">
         <v>0</v>
@@ -8291,10 +8273,10 @@
         <v>338</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D335" s="15">
         <v>0</v>
@@ -8308,10 +8290,10 @@
         <v>339</v>
       </c>
       <c r="B336" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D336" s="15">
         <v>0</v>
@@ -8325,10 +8307,10 @@
         <v>340</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C337" s="14" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D337" s="15">
         <v>0</v>
@@ -8342,10 +8324,10 @@
         <v>341</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D338" s="15">
         <v>0</v>
@@ -8359,10 +8341,10 @@
         <v>342</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D339" s="15">
         <v>0</v>
@@ -8376,10 +8358,10 @@
         <v>343</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D340" s="16">
         <v>88</v>
@@ -8393,10 +8375,10 @@
         <v>344</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C341" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D341" s="16">
         <v>58</v>
@@ -8410,10 +8392,10 @@
         <v>345</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C342" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D342" s="16">
         <v>139</v>
@@ -8427,10 +8409,10 @@
         <v>346</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D343" s="15">
         <v>0</v>
@@ -8444,10 +8426,10 @@
         <v>347</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D344" s="15">
         <v>0</v>
@@ -8461,10 +8443,10 @@
         <v>348</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C345" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D345" s="15">
         <v>0</v>
@@ -8478,10 +8460,10 @@
         <v>349</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D346" s="15">
         <v>0</v>
@@ -8495,10 +8477,10 @@
         <v>350</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C347" s="14" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D347" s="15">
         <v>0</v>
@@ -8512,10 +8494,10 @@
         <v>351</v>
       </c>
       <c r="B348" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C348" s="14" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D348" s="15">
         <v>0</v>
@@ -8529,10 +8511,10 @@
         <v>352</v>
       </c>
       <c r="B349" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C349" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D349" s="16">
         <v>86</v>
@@ -8546,10 +8528,10 @@
         <v>353</v>
       </c>
       <c r="B350" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C350" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D350" s="16">
         <v>260</v>
@@ -8563,10 +8545,10 @@
         <v>354</v>
       </c>
       <c r="B351" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C351" s="14" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D351" s="15">
         <v>0</v>
@@ -8580,10 +8562,10 @@
         <v>355</v>
       </c>
       <c r="B352" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C352" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D352" s="15">
         <v>0</v>
@@ -8597,10 +8579,10 @@
         <v>356</v>
       </c>
       <c r="B353" s="18" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C353" s="14" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D353" s="15">
         <v>0</v>
@@ -8614,10 +8596,10 @@
         <v>357</v>
       </c>
       <c r="B354" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D354" s="15">
         <v>0</v>
@@ -8631,10 +8613,10 @@
         <v>358</v>
       </c>
       <c r="B355" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C355" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D355" s="16">
         <v>63</v>
@@ -8648,10 +8630,10 @@
         <v>359</v>
       </c>
       <c r="B356" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C356" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D356" s="15">
         <v>0</v>
@@ -8665,10 +8647,10 @@
         <v>360</v>
       </c>
       <c r="B357" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C357" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D357" s="16">
         <v>165</v>
@@ -8682,10 +8664,10 @@
         <v>361</v>
       </c>
       <c r="B358" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C358" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D358" s="16">
         <v>233</v>
@@ -8699,10 +8681,10 @@
         <v>362</v>
       </c>
       <c r="B359" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C359" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D359" s="16">
         <v>72</v>
@@ -8716,10 +8698,10 @@
         <v>363</v>
       </c>
       <c r="B360" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C360" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D360" s="16">
         <v>9</v>
@@ -8733,10 +8715,10 @@
         <v>364</v>
       </c>
       <c r="B361" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C361" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D361" s="16">
         <v>203</v>
@@ -8750,10 +8732,10 @@
         <v>365</v>
       </c>
       <c r="B362" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C362" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D362" s="16">
         <v>472</v>
@@ -8767,10 +8749,10 @@
         <v>366</v>
       </c>
       <c r="B363" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C363" s="14" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D363" s="15">
         <v>0</v>
@@ -8784,10 +8766,10 @@
         <v>367</v>
       </c>
       <c r="B364" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C364" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D364" s="15">
         <v>4</v>
@@ -8801,10 +8783,10 @@
         <v>368</v>
       </c>
       <c r="B365" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C365" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D365" s="15">
         <v>0</v>
@@ -8818,10 +8800,10 @@
         <v>369</v>
       </c>
       <c r="B366" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C366" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D366" s="16">
         <v>113</v>
@@ -8835,10 +8817,10 @@
         <v>370</v>
       </c>
       <c r="B367" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C367" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D367" s="16">
         <v>186</v>
@@ -8852,10 +8834,10 @@
         <v>371</v>
       </c>
       <c r="B368" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C368" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D368" s="16">
         <v>140</v>
@@ -8869,10 +8851,10 @@
         <v>372</v>
       </c>
       <c r="B369" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C369" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D369" s="16">
         <v>131</v>
@@ -8886,10 +8868,10 @@
         <v>373</v>
       </c>
       <c r="B370" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C370" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D370" s="16">
         <v>54</v>
@@ -8903,10 +8885,10 @@
         <v>374</v>
       </c>
       <c r="B371" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C371" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D371" s="15">
         <v>0</v>
@@ -8920,10 +8902,10 @@
         <v>375</v>
       </c>
       <c r="B372" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D372" s="16">
         <v>42</v>
@@ -8937,10 +8919,10 @@
         <v>376</v>
       </c>
       <c r="B373" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D373" s="16">
         <v>58</v>
@@ -8954,10 +8936,10 @@
         <v>377</v>
       </c>
       <c r="B374" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C374" s="14" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D374" s="15">
         <v>0</v>
@@ -8971,10 +8953,10 @@
         <v>378</v>
       </c>
       <c r="B375" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C375" s="14" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D375" s="15">
         <v>0</v>
@@ -8988,10 +8970,10 @@
         <v>379</v>
       </c>
       <c r="B376" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C376" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D376" s="16">
         <v>525</v>
@@ -9005,10 +8987,10 @@
         <v>380</v>
       </c>
       <c r="B377" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C377" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D377" s="16">
         <v>139</v>
@@ -9022,10 +9004,10 @@
         <v>381</v>
       </c>
       <c r="B378" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C378" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D378" s="16">
         <v>152</v>
@@ -9039,10 +9021,10 @@
         <v>382</v>
       </c>
       <c r="B379" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C379" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D379" s="15">
         <v>0</v>
@@ -9056,10 +9038,10 @@
         <v>383</v>
       </c>
       <c r="B380" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C380" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D380" s="16">
         <v>84</v>
@@ -9073,10 +9055,10 @@
         <v>384</v>
       </c>
       <c r="B381" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C381" s="14" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D381" s="15">
         <v>0</v>
@@ -9090,10 +9072,10 @@
         <v>385</v>
       </c>
       <c r="B382" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C382" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D382" s="16">
         <v>130</v>
@@ -9107,10 +9089,10 @@
         <v>386</v>
       </c>
       <c r="B383" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D383" s="16">
         <v>40</v>
@@ -9124,10 +9106,10 @@
         <v>387</v>
       </c>
       <c r="B384" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C384" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D384" s="16">
         <v>150</v>
@@ -9141,10 +9123,10 @@
         <v>388</v>
       </c>
       <c r="B385" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C385" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D385" s="16">
         <v>79</v>
@@ -9158,10 +9140,10 @@
         <v>389</v>
       </c>
       <c r="B386" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C386" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D386" s="16">
         <v>184</v>
@@ -9175,10 +9157,10 @@
         <v>390</v>
       </c>
       <c r="B387" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C387" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D387" s="16">
         <v>30</v>
@@ -9192,10 +9174,10 @@
         <v>391</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C388" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D388" s="16">
         <v>71</v>
@@ -9209,10 +9191,10 @@
         <v>392</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C389" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D389" s="16">
         <v>95</v>
@@ -9226,10 +9208,10 @@
         <v>393</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C390" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D390" s="16">
         <v>106</v>
@@ -9243,10 +9225,10 @@
         <v>394</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C391" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D391" s="16">
         <v>133</v>
@@ -9260,10 +9242,10 @@
         <v>395</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C392" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D392" s="16">
         <v>78</v>
@@ -9277,10 +9259,10 @@
         <v>396</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C393" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D393" s="16">
         <v>56</v>
@@ -9294,10 +9276,10 @@
         <v>397</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C394" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D394" s="15">
         <v>0</v>
@@ -9311,10 +9293,10 @@
         <v>398</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C395" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D395" s="15">
         <v>0</v>
@@ -9328,10 +9310,10 @@
         <v>399</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C396" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D396" s="16">
         <v>115</v>
@@ -9345,10 +9327,10 @@
         <v>400</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D397" s="15">
         <v>0</v>
@@ -9362,10 +9344,10 @@
         <v>401</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D398" s="16">
         <v>106</v>
@@ -9379,10 +9361,10 @@
         <v>402</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D399" s="16">
         <v>74</v>
@@ -9396,10 +9378,10 @@
         <v>403</v>
       </c>
       <c r="B400" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D400" s="15">
         <v>0</v>
@@ -9413,10 +9395,10 @@
         <v>404</v>
       </c>
       <c r="B401" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C401" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D401" s="15">
         <v>0</v>
@@ -9430,10 +9412,10 @@
         <v>405</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C402" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D402" s="16">
         <v>49</v>
@@ -9447,10 +9429,10 @@
         <v>406</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C403" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D403" s="16">
         <v>76</v>
@@ -9464,10 +9446,10 @@
         <v>407</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C404" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D404" s="16">
         <v>170</v>
@@ -9481,10 +9463,10 @@
         <v>408</v>
       </c>
       <c r="B405" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C405" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D405" s="15">
         <v>0</v>
@@ -9498,10 +9480,10 @@
         <v>409</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C406" s="14" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D406" s="15">
         <v>0</v>
@@ -9515,10 +9497,10 @@
         <v>410</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C407" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D407" s="15">
         <v>2</v>
@@ -9532,10 +9514,10 @@
         <v>411</v>
       </c>
       <c r="B408" s="13" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C408" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D408" s="16">
         <v>141</v>
@@ -9549,10 +9531,10 @@
         <v>412</v>
       </c>
       <c r="B409" s="13" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C409" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D409" s="15">
         <v>0</v>
@@ -9566,10 +9548,10 @@
         <v>413</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C410" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D410" s="16">
         <v>48</v>
@@ -9583,10 +9565,10 @@
         <v>414</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C411" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D411" s="16">
         <v>111</v>
@@ -9600,10 +9582,10 @@
         <v>415</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D412" s="16">
         <v>101</v>
@@ -9617,10 +9599,10 @@
         <v>416</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C413" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D413" s="16">
         <v>177</v>
@@ -9634,10 +9616,10 @@
         <v>417</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C414" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D414" s="16">
         <v>210</v>
@@ -9651,10 +9633,10 @@
         <v>418</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D415" s="15">
         <v>0</v>
@@ -9668,10 +9650,10 @@
         <v>419</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D416" s="15">
         <v>0</v>
@@ -9685,10 +9667,10 @@
         <v>420</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D417" s="15">
         <v>0</v>
@@ -9702,10 +9684,10 @@
         <v>421</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D418" s="16">
         <v>195</v>
@@ -9719,10 +9701,10 @@
         <v>422</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D419" s="16">
         <v>207</v>
@@ -9736,10 +9718,10 @@
         <v>423</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D420" s="16">
         <v>155</v>
@@ -9753,10 +9735,10 @@
         <v>424</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C421" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D421" s="16">
         <v>36</v>
@@ -9770,10 +9752,10 @@
         <v>425</v>
       </c>
       <c r="B422" s="13" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D422" s="16">
         <v>157</v>
@@ -9787,10 +9769,10 @@
         <v>426</v>
       </c>
       <c r="B423" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D423" s="15">
         <v>0</v>
@@ -9804,10 +9786,10 @@
         <v>427</v>
       </c>
       <c r="B424" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D424" s="15">
         <v>0</v>
@@ -9821,10 +9803,10 @@
         <v>428</v>
       </c>
       <c r="B425" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C425" s="14" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D425" s="15">
         <v>0</v>
@@ -9838,10 +9820,10 @@
         <v>429</v>
       </c>
       <c r="B426" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C426" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D426" s="15">
         <v>0</v>
@@ -9855,10 +9837,10 @@
         <v>430</v>
       </c>
       <c r="B427" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D427" s="15">
         <v>0</v>
@@ -9872,10 +9854,10 @@
         <v>431</v>
       </c>
       <c r="B428" s="13" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D428" s="15">
         <v>0</v>
@@ -9889,10 +9871,10 @@
         <v>432</v>
       </c>
       <c r="B429" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D429" s="15">
         <v>0</v>
@@ -9906,10 +9888,10 @@
         <v>433</v>
       </c>
       <c r="B430" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D430" s="15">
         <v>0</v>
@@ -9923,10 +9905,10 @@
         <v>434</v>
       </c>
       <c r="B431" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C431" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D431" s="15">
         <v>0</v>
@@ -9940,10 +9922,10 @@
         <v>435</v>
       </c>
       <c r="B432" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C432" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D432" s="15">
         <v>0</v>
@@ -9957,10 +9939,10 @@
         <v>436</v>
       </c>
       <c r="B433" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C433" s="14" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D433" s="15">
         <v>0</v>
@@ -9974,10 +9956,10 @@
         <v>437</v>
       </c>
       <c r="B434" s="13" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C434" s="14" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D434" s="16">
         <v>0</v>
@@ -9991,10 +9973,10 @@
         <v>438</v>
       </c>
       <c r="B435" s="13" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C435" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D435" s="16">
         <v>38</v>
@@ -10008,10 +9990,10 @@
         <v>439</v>
       </c>
       <c r="B436" s="13" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C436" s="14" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D436" s="15">
         <v>0</v>
@@ -10025,10 +10007,10 @@
         <v>440</v>
       </c>
       <c r="B437" s="13" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C437" s="14" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D437" s="15">
         <v>0</v>
@@ -10042,10 +10024,10 @@
         <v>441</v>
       </c>
       <c r="B438" s="13" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C438" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D438" s="15">
         <v>0</v>
@@ -10059,10 +10041,10 @@
         <v>442</v>
       </c>
       <c r="B439" s="13" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C439" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D439" s="15">
         <v>0</v>
@@ -10076,10 +10058,10 @@
         <v>443</v>
       </c>
       <c r="B440" s="13" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C440" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D440" s="16">
         <v>54</v>
@@ -10093,10 +10075,10 @@
         <v>444</v>
       </c>
       <c r="B441" s="13" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C441" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D441" s="16">
         <v>101</v>
@@ -10110,10 +10092,10 @@
         <v>445</v>
       </c>
       <c r="B442" s="13" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D442" s="16">
         <v>79</v>
@@ -10127,10 +10109,10 @@
         <v>446</v>
       </c>
       <c r="B443" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C443" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D443" s="16">
         <v>83</v>
@@ -10144,10 +10126,10 @@
         <v>447</v>
       </c>
       <c r="B444" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C444" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D444" s="16">
         <v>83</v>
@@ -10161,10 +10143,10 @@
         <v>448</v>
       </c>
       <c r="B445" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C445" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D445" s="16">
         <v>77</v>
@@ -10178,10 +10160,10 @@
         <v>449</v>
       </c>
       <c r="B446" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C446" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D446" s="16">
         <v>99</v>
@@ -10195,10 +10177,10 @@
         <v>450</v>
       </c>
       <c r="B447" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C447" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D447" s="16">
         <v>77</v>
@@ -10212,10 +10194,10 @@
         <v>451</v>
       </c>
       <c r="B448" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C448" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D448" s="16">
         <v>104</v>
@@ -10229,10 +10211,10 @@
         <v>452</v>
       </c>
       <c r="B449" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C449" s="14" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D449" s="15">
         <v>0</v>
@@ -10246,10 +10228,10 @@
         <v>453</v>
       </c>
       <c r="B450" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C450" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D450" s="15">
         <v>0</v>
@@ -10263,10 +10245,10 @@
         <v>454</v>
       </c>
       <c r="B451" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C451" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D451" s="15">
         <v>0</v>
@@ -10280,10 +10262,10 @@
         <v>455</v>
       </c>
       <c r="B452" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C452" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D452" s="16">
         <v>110</v>
@@ -10297,10 +10279,10 @@
         <v>456</v>
       </c>
       <c r="B453" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C453" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D453" s="15">
         <v>1</v>
@@ -10314,10 +10296,10 @@
         <v>457</v>
       </c>
       <c r="B454" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C454" s="14" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D454" s="15">
         <v>0</v>
@@ -10331,10 +10313,10 @@
         <v>458</v>
       </c>
       <c r="B455" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C455" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D455" s="16">
         <v>68</v>
@@ -10348,10 +10330,10 @@
         <v>459</v>
       </c>
       <c r="B456" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C456" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D456" s="16">
         <v>77</v>
@@ -10365,10 +10347,10 @@
         <v>460</v>
       </c>
       <c r="B457" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C457" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D457" s="16">
         <v>128</v>
@@ -10382,10 +10364,10 @@
         <v>461</v>
       </c>
       <c r="B458" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C458" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D458" s="16">
         <v>88</v>
@@ -10399,10 +10381,10 @@
         <v>462</v>
       </c>
       <c r="B459" s="13" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C459" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D459" s="16">
         <v>205</v>
@@ -10416,10 +10398,10 @@
         <v>463</v>
       </c>
       <c r="B460" s="13" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C460" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D460" s="16">
         <v>120</v>
@@ -10433,10 +10415,10 @@
         <v>464</v>
       </c>
       <c r="B461" s="13" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C461" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D461" s="16">
         <v>205</v>
@@ -10450,10 +10432,10 @@
         <v>465</v>
       </c>
       <c r="B462" s="13" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C462" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D462" s="16">
         <v>64</v>
@@ -10467,10 +10449,10 @@
         <v>466</v>
       </c>
       <c r="B463" s="13" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C463" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D463" s="15">
         <v>0</v>
@@ -10484,10 +10466,10 @@
         <v>467</v>
       </c>
       <c r="B464" s="13" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C464" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D464" s="15">
         <v>0</v>
@@ -10501,10 +10483,10 @@
         <v>468</v>
       </c>
       <c r="B465" s="13" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C465" s="14" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D465" s="15">
         <v>0</v>
@@ -10518,10 +10500,10 @@
         <v>469</v>
       </c>
       <c r="B466" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C466" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D466" s="16">
         <v>161</v>
@@ -10535,10 +10517,10 @@
         <v>470</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C467" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D467" s="16">
         <v>75</v>
@@ -10552,10 +10534,10 @@
         <v>471</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C468" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D468" s="16">
         <v>72</v>
@@ -10569,10 +10551,10 @@
         <v>472</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C469" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D469" s="16">
         <v>43</v>
@@ -10586,10 +10568,10 @@
         <v>473</v>
       </c>
       <c r="B470" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C470" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D470" s="16">
         <v>203</v>
@@ -10603,10 +10585,10 @@
         <v>474</v>
       </c>
       <c r="B471" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C471" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D471" s="16">
         <v>126</v>
@@ -10620,10 +10602,10 @@
         <v>475</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C472" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D472" s="15">
         <v>0</v>
@@ -10637,10 +10619,10 @@
         <v>476</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C473" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D473" s="16">
         <v>98</v>
@@ -10654,10 +10636,10 @@
         <v>477</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C474" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D474" s="16">
         <v>61</v>
@@ -10671,10 +10653,10 @@
         <v>478</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C475" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D475" s="15">
         <v>0</v>
@@ -10688,10 +10670,10 @@
         <v>479</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C476" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D476" s="16">
         <v>106</v>
@@ -10705,10 +10687,10 @@
         <v>480</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C477" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D477" s="16">
         <v>131</v>
@@ -10722,10 +10704,10 @@
         <v>481</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C478" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D478" s="16">
         <v>25</v>
@@ -10739,10 +10721,10 @@
         <v>482</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C479" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D479" s="16">
         <v>178</v>
@@ -10756,10 +10738,10 @@
         <v>483</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C480" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D480" s="15">
         <v>0</v>
@@ -10773,10 +10755,10 @@
         <v>484</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C481" s="14" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D481" s="15">
         <v>0</v>
@@ -10790,10 +10772,10 @@
         <v>485</v>
       </c>
       <c r="B482" s="13" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C482" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D482" s="16">
         <v>64</v>
@@ -10807,10 +10789,10 @@
         <v>486</v>
       </c>
       <c r="B483" s="13" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C483" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D483" s="16">
         <v>76</v>
@@ -10824,10 +10806,10 @@
         <v>487</v>
       </c>
       <c r="B484" s="13" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C484" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D484" s="16">
         <v>120</v>
@@ -10841,10 +10823,10 @@
         <v>488</v>
       </c>
       <c r="B485" s="13" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C485" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D485" s="16">
         <v>42</v>
@@ -10858,10 +10840,10 @@
         <v>489</v>
       </c>
       <c r="B486" s="13" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C486" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D486" s="16">
         <v>174</v>
@@ -10875,10 +10857,10 @@
         <v>490</v>
       </c>
       <c r="B487" s="13" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C487" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D487" s="16">
         <v>35</v>
@@ -10892,10 +10874,10 @@
         <v>491</v>
       </c>
       <c r="B488" s="13" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C488" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D488" s="16">
         <v>65</v>
@@ -10909,10 +10891,10 @@
         <v>492</v>
       </c>
       <c r="B489" s="13" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C489" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D489" s="16">
         <v>104</v>
@@ -10926,10 +10908,10 @@
         <v>493</v>
       </c>
       <c r="B490" s="13" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C490" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D490" s="15">
         <v>0</v>
@@ -10943,10 +10925,10 @@
         <v>494</v>
       </c>
       <c r="B491" s="13" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C491" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D491" s="16">
         <v>91</v>
@@ -10960,10 +10942,10 @@
         <v>495</v>
       </c>
       <c r="B492" s="13" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C492" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D492" s="16">
         <v>118</v>
@@ -10977,10 +10959,10 @@
         <v>496</v>
       </c>
       <c r="B493" s="13" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C493" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D493" s="16">
         <v>45</v>
@@ -10994,10 +10976,10 @@
         <v>497</v>
       </c>
       <c r="B494" s="13" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C494" s="14" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D494" s="15">
         <v>0</v>
@@ -11011,10 +10993,10 @@
         <v>498</v>
       </c>
       <c r="B495" s="13" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C495" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D495" s="15">
         <v>0</v>
@@ -11028,10 +11010,10 @@
         <v>499</v>
       </c>
       <c r="B496" s="13" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C496" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D496" s="16">
         <v>128</v>
@@ -11045,10 +11027,10 @@
         <v>500</v>
       </c>
       <c r="B497" s="13" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C497" s="14" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D497" s="15">
         <v>0</v>
@@ -11062,10 +11044,10 @@
         <v>501</v>
       </c>
       <c r="B498" s="13" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C498" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D498" s="16">
         <v>147</v>
@@ -11079,10 +11061,10 @@
         <v>502</v>
       </c>
       <c r="B499" s="13" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C499" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D499" s="16">
         <v>34</v>
@@ -11096,10 +11078,10 @@
         <v>503</v>
       </c>
       <c r="B500" s="13" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C500" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D500" s="16">
         <v>86</v>
@@ -11113,10 +11095,10 @@
         <v>504</v>
       </c>
       <c r="B501" s="13" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C501" s="13" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D501" s="15">
         <v>0</v>
@@ -11130,10 +11112,10 @@
         <v>505</v>
       </c>
       <c r="B502" s="13" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C502" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D502" s="15">
         <v>0</v>
@@ -11147,10 +11129,10 @@
         <v>506</v>
       </c>
       <c r="B503" s="13" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C503" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D503" s="15">
         <v>0</v>
@@ -11164,10 +11146,10 @@
         <v>507</v>
       </c>
       <c r="B504" s="13" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C504" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D504" s="15">
         <v>0</v>
@@ -11181,10 +11163,10 @@
         <v>508</v>
       </c>
       <c r="B505" s="13" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C505" s="14" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D505" s="15">
         <v>0</v>
@@ -11198,10 +11180,10 @@
         <v>509</v>
       </c>
       <c r="B506" s="13" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C506" s="14" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D506" s="15">
         <v>0</v>
@@ -11215,10 +11197,10 @@
         <v>510</v>
       </c>
       <c r="B507" s="13" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C507" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D507" s="16">
         <v>43</v>
@@ -11232,10 +11214,10 @@
         <v>511</v>
       </c>
       <c r="B508" s="13" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C508" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D508" s="16">
         <v>217</v>
@@ -11249,10 +11231,10 @@
         <v>512</v>
       </c>
       <c r="B509" s="13" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C509" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D509" s="16">
         <v>48</v>
@@ -11266,10 +11248,10 @@
         <v>513</v>
       </c>
       <c r="B510" s="13" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C510" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D510" s="16">
         <v>52</v>
@@ -11283,10 +11265,10 @@
         <v>514</v>
       </c>
       <c r="B511" s="13" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C511" s="14" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D511" s="15">
         <v>0</v>
@@ -11300,10 +11282,10 @@
         <v>515</v>
       </c>
       <c r="B512" s="13" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C512" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D512" s="16">
         <v>79</v>
@@ -11317,10 +11299,10 @@
         <v>516</v>
       </c>
       <c r="B513" s="13" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C513" s="14" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D513" s="16">
         <v>0</v>
@@ -11334,10 +11316,10 @@
         <v>517</v>
       </c>
       <c r="B514" s="13" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C514" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D514" s="16">
         <v>69</v>
@@ -11351,10 +11333,10 @@
         <v>518</v>
       </c>
       <c r="B515" s="13" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C515" s="14" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D515" s="15">
         <v>0</v>
@@ -11368,10 +11350,10 @@
         <v>519</v>
       </c>
       <c r="B516" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C516" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D516" s="15">
         <v>0</v>
@@ -11385,10 +11367,10 @@
         <v>520</v>
       </c>
       <c r="B517" s="13" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C517" s="14" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D517" s="15">
         <v>0</v>
@@ -11402,10 +11384,10 @@
         <v>521</v>
       </c>
       <c r="B518" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C518" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D518" s="15">
         <v>0</v>
@@ -11419,10 +11401,10 @@
         <v>522</v>
       </c>
       <c r="B519" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C519" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D519" s="15">
         <v>0</v>
@@ -11436,10 +11418,10 @@
         <v>523</v>
       </c>
       <c r="B520" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C520" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D520" s="15">
         <v>0</v>
@@ -11453,10 +11435,10 @@
         <v>524</v>
       </c>
       <c r="B521" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C521" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D521" s="16">
         <v>70</v>
@@ -11470,10 +11452,10 @@
         <v>525</v>
       </c>
       <c r="B522" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C522" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D522" s="16">
         <v>127</v>
@@ -11487,10 +11469,10 @@
         <v>526</v>
       </c>
       <c r="B523" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C523" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D523" s="16">
         <v>106</v>
@@ -11504,10 +11486,10 @@
         <v>527</v>
       </c>
       <c r="B524" s="13" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C524" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D524" s="16">
         <v>81</v>
@@ -11521,10 +11503,10 @@
         <v>528</v>
       </c>
       <c r="B525" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C525" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D525" s="16">
         <v>63</v>
@@ -11538,10 +11520,10 @@
         <v>529</v>
       </c>
       <c r="B526" s="13" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C526" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D526" s="16">
         <v>102</v>
@@ -11555,10 +11537,10 @@
         <v>530</v>
       </c>
       <c r="B527" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C527" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D527" s="16">
         <v>125</v>
@@ -11572,10 +11554,10 @@
         <v>531</v>
       </c>
       <c r="B528" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C528" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D528" s="15">
         <v>0</v>
@@ -11589,10 +11571,10 @@
         <v>532</v>
       </c>
       <c r="B529" s="13" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C529" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D529" s="16">
         <v>121</v>
@@ -11606,10 +11588,10 @@
         <v>533</v>
       </c>
       <c r="B530" s="13" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C530" s="14" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D530" s="15">
         <v>0</v>
@@ -11623,10 +11605,10 @@
         <v>534</v>
       </c>
       <c r="B531" s="13" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C531" s="14" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D531" s="15">
         <v>0</v>
@@ -11640,10 +11622,10 @@
         <v>535</v>
       </c>
       <c r="B532" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C532" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D532" s="16">
         <v>22</v>
@@ -11657,10 +11639,10 @@
         <v>536</v>
       </c>
       <c r="B533" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C533" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D533" s="16">
         <v>116</v>
@@ -11674,10 +11656,10 @@
         <v>537</v>
       </c>
       <c r="B534" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C534" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D534" s="16">
         <v>84</v>
@@ -11691,10 +11673,10 @@
         <v>538</v>
       </c>
       <c r="B535" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C535" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D535" s="15">
         <v>0</v>
@@ -11708,10 +11690,10 @@
         <v>539</v>
       </c>
       <c r="B536" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C536" s="14" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D536" s="15">
         <v>0</v>
@@ -11725,10 +11707,10 @@
         <v>540</v>
       </c>
       <c r="B537" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C537" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D537" s="15">
         <v>0</v>
@@ -11742,10 +11724,10 @@
         <v>541</v>
       </c>
       <c r="B538" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C538" s="14" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D538" s="15">
         <v>0</v>
